--- a/data/NSW Riparian Trait values_tosubmit.xlsx
+++ b/data/NSW Riparian Trait values_tosubmit.xlsx
@@ -25,6 +25,7 @@
     <definedName name="Growthforms">'read me'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
